--- a/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,38; 53,89</t>
+          <t>52,27; 53,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 54,42</t>
+          <t>53,17; 54,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,72; 54,17</t>
+          <t>52,77; 54,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,32; 53,49</t>
+          <t>52,24; 53,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,92; 52,96</t>
+          <t>50,86; 52,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,91; 53,64</t>
+          <t>51,96; 53,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,0; 53,82</t>
+          <t>51,96; 53,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,71</t>
+          <t>51,46; 52,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,11; 53,31</t>
+          <t>52,14; 53,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,94; 53,94</t>
+          <t>52,92; 53,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,63; 53,79</t>
+          <t>52,68; 53,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,11; 52,98</t>
+          <t>52,1; 53,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,36; 54,55</t>
+          <t>53,27; 54,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,99; 53,59</t>
+          <t>52,0; 53,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,06; 54,47</t>
+          <t>52,99; 54,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,64; 53,01</t>
+          <t>51,65; 52,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,71; 54,11</t>
+          <t>52,69; 54,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,19; 53,87</t>
+          <t>52,13; 53,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,03; 53,78</t>
+          <t>51,97; 53,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,96; 52,44</t>
+          <t>51,06; 52,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,22; 54,15</t>
+          <t>53,18; 54,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,27; 53,51</t>
+          <t>52,37; 53,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,86; 53,98</t>
+          <t>52,86; 54,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,57; 52,52</t>
+          <t>51,61; 52,6</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,24; 53,42</t>
+          <t>52,23; 53,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,34; 52,05</t>
+          <t>50,52; 52,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,82; 53,13</t>
+          <t>51,93; 53,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,01; 50,98</t>
+          <t>48,94; 50,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,93; 51,17</t>
+          <t>47,92; 51,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,96; 51,27</t>
+          <t>48,68; 51,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,99; 51,45</t>
+          <t>48,17; 51,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,29; 49,05</t>
+          <t>46,29; 49,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 52,67</t>
+          <t>51,54; 52,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,24; 51,61</t>
+          <t>50,24; 51,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,17; 52,49</t>
+          <t>51,15; 52,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,73; 50,19</t>
+          <t>48,75; 50,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,48; 52,35</t>
+          <t>51,53; 52,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,91; 52,06</t>
+          <t>50,86; 52,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,5; 52,56</t>
+          <t>51,49; 52,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,71; 50,94</t>
+          <t>49,66; 50,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,64; 51,91</t>
+          <t>50,62; 51,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,27</t>
+          <t>50,95; 52,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,17; 52,53</t>
+          <t>51,22; 52,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,38; 52,21</t>
+          <t>50,35; 52,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,34; 52,08</t>
+          <t>51,35; 52,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,08; 51,97</t>
+          <t>51,12; 51,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,55; 52,37</t>
+          <t>51,58; 52,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,42</t>
+          <t>50,24; 51,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,82; 52,56</t>
+          <t>50,9; 52,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 52,46</t>
+          <t>50,94; 52,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,43; 51,96</t>
+          <t>50,57; 52,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,77; 50,53</t>
+          <t>48,64; 50,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,52; 51,12</t>
+          <t>49,62; 51,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,83; 48,51</t>
+          <t>46,84; 48,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,15; 49,79</t>
+          <t>48,07; 49,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,02; 50,18</t>
+          <t>47,12; 50,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,35; 51,53</t>
+          <t>50,48; 51,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,74; 49,92</t>
+          <t>48,72; 49,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,46; 50,6</t>
+          <t>49,44; 50,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,01; 49,92</t>
+          <t>47,96; 49,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,75; 55,74</t>
+          <t>54,68; 55,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>54,24; 55,6</t>
+          <t>54,18; 55,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,21; 56,22</t>
+          <t>55,19; 56,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,04; 56,27</t>
+          <t>55,13; 56,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,97; 49,08</t>
+          <t>47,96; 49,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,1; 48,59</t>
+          <t>47,18; 48,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,83; 49,29</t>
+          <t>47,79; 49,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,11; 48,51</t>
+          <t>47,11; 48,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,38; 50,34</t>
+          <t>49,33; 50,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,71; 49,92</t>
+          <t>48,63; 49,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,42; 50,69</t>
+          <t>49,42; 50,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>49,17; 50,42</t>
+          <t>49,06; 50,35</t>
         </is>
       </c>
     </row>
@@ -1564,42 +1564,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,53; 53,06</t>
+          <t>52,51; 53,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,95; 52,57</t>
+          <t>51,93; 52,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,41; 52,96</t>
+          <t>52,4; 52,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,59; 51,57</t>
+          <t>50,6; 51,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,68</t>
+          <t>50,02; 50,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,43; 50,12</t>
+          <t>49,39; 50,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,04; 50,76</t>
+          <t>50,05; 50,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,36; 50,45</t>
+          <t>49,34; 50,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,75; 51,21</t>
+          <t>50,75; 51,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,27; 51,76</t>
+          <t>51,29; 51,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,2; 50,8</t>
+          <t>50,18; 50,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
